--- a/Buyer hub/Outlets/Manual testcases/Outlet-Listing testcases.xlsx
+++ b/Buyer hub/Outlets/Manual testcases/Outlet-Listing testcases.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\zm-buyerautomation\Buyer hub\Outlets\Manual testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771DB0CA-6E7E-4D6E-B746-2FF6B4B19BE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96C64085-11D3-4EFF-8BBB-93AB248D5874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="91">
   <si>
     <t>SL. No</t>
   </si>
@@ -166,83 +166,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Once click on the "</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Actions"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>of any one outlet</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> The dropdown value it should display like </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>'Manage details, Manage settings and View suppliers'</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">As per expected, Once click on the </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>"Actions"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>of any one outlet, The dropdown value it get display like Manage details, Manage settings and View suppliers</t>
     </r>
   </si>
   <si>
@@ -902,6 +825,136 @@
   </si>
   <si>
     <t>It displayed the text below in recurring orders</t>
+  </si>
+  <si>
+    <r>
+      <t>Once click on the "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>of any one outlet</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> The dropdown value it should display like </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>'Manage details, Manage settings, View suppliers and Manage Integration'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">As per expected, Once click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>"Actions"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>of any one outlet, The dropdown value it get display like Manage details, Manage settings, View suppliers and Manage Integration</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Once click the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Manage Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it comes Integration  page </t>
+    </r>
+  </si>
+  <si>
+    <t>It displayed the Integration page</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Click on the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Actions-&gt;Manage Integration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(new)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1056,7 +1109,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1073,48 +1126,35 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1397,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1413,7 +1453,7 @@
     <col min="6" max="6" width="50.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1475,7 +1515,7 @@
       <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="16" t="s">
         <v>14</v>
       </c>
       <c r="G3" t="s">
@@ -1509,452 +1549,505 @@
       <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="10" t="s">
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="F6" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="G6" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>8</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>9</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
+        <v>11</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24">
-        <v>5</v>
-      </c>
-      <c r="B6" s="21" t="s">
+      <c r="G11" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
+        <v>12</v>
+      </c>
+      <c r="B12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
-        <v>6</v>
-      </c>
-      <c r="B7" s="21" t="s">
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>13</v>
+      </c>
+      <c r="B13" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
-        <v>8</v>
-      </c>
-      <c r="B8" s="21" t="s">
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5">
+        <v>14</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5">
+        <v>15</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="G15" s="18" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5">
+        <v>16</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="E8" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
-        <v>9</v>
-      </c>
-      <c r="B9" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>10</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>11</v>
-      </c>
-      <c r="B11" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F11" s="8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
-        <v>12</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>13</v>
-      </c>
-      <c r="B13" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13" s="8" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>14</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>79</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>15</v>
-      </c>
-      <c r="B15" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="C15" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>85</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
-        <v>16</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="9" t="s">
         <v>24</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="G16" s="13" t="s">
+      <c r="G16" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="A17" s="5">
         <v>17</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="G17" s="13" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="G17" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="78" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
         <v>18</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D18" s="14" t="s">
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>19</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F19" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="16" t="s">
+      <c r="G19" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>20</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="17" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
-        <v>19</v>
-      </c>
-      <c r="B19" s="21" t="s">
+      <c r="E20" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="5">
+        <v>21</v>
+      </c>
+      <c r="B21" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D19" s="14" t="s">
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="F19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="F21" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5">
+        <v>22</v>
+      </c>
+      <c r="B22" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5">
+        <v>23</v>
+      </c>
+      <c r="B23" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
-        <v>21</v>
-      </c>
-      <c r="B21" s="21" t="s">
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5">
+        <v>24</v>
+      </c>
+      <c r="B24" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
-        <v>22</v>
-      </c>
-      <c r="B22" s="21" t="s">
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>25</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
-        <v>23</v>
-      </c>
-      <c r="B23" s="21" t="s">
+      <c r="E25" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D23" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="E23" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
-        <v>24</v>
-      </c>
-      <c r="B24" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="22" t="s">
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E24" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="F24" s="6" t="s">
+      <c r="E26" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="G24" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
-        <v>25</v>
-      </c>
-      <c r="B25" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="D25" s="22" t="s">
+      <c r="F26" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="18" t="s">
+      <c r="G26" s="12" t="s">
         <v>11</v>
       </c>
     </row>
